--- a/Video_Files/Kostenrechnnung.xlsx
+++ b/Video_Files/Kostenrechnnung.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Creo\KOP_Solartracker\Video_Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD0CCB53-7CE5-4E63-83A1-A76DD6917332}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A68B36EA-E35E-4FA2-9C94-11F478E5C5CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
   <si>
     <t>Item</t>
   </si>
@@ -122,7 +122,22 @@
     <t>Gabelkopf</t>
   </si>
   <si>
-    <t>(only one needed)</t>
+    <t>Magnete</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Arduino Uno</t>
+  </si>
+  <si>
+    <t>https://techfun.sk/de/produkt/arduino-uno-smd-edicia-precizny-klon/?lang=de&amp;currency=EUR&amp;gclid=Cj0KCQjwpPKiBhDvARIsACn-gzDuEH17V7rAY_dnIS5k45Iusc-3aC-x8fN7mYlB0JF8VqQ08ZhPt6waAkDmEALw_wcB</t>
+  </si>
+  <si>
+    <t>Total Price</t>
+  </si>
+  <si>
+    <t>(10 included)</t>
   </si>
 </sst>
 </file>
@@ -130,8 +145,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="168" formatCode="[$€-C07]&quot; &quot;#,##0.00;[Red]&quot;-&quot;[$€-C07]&quot; &quot;#,##0.00"/>
-    <numFmt numFmtId="170" formatCode="&quot;€&quot;\ #,##0.00"/>
+    <numFmt numFmtId="164" formatCode="[$€-C07]&quot; &quot;#,##0.00;[Red]&quot;-&quot;[$€-C07]&quot; &quot;#,##0.00"/>
+    <numFmt numFmtId="165" formatCode="&quot;€&quot;\ #,##0.00"/>
   </numFmts>
   <fonts count="17">
     <font>
@@ -289,7 +304,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -314,6 +329,21 @@
     </border>
     <border>
       <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF000000"/>
       </left>
       <right style="thin">
@@ -322,9 +352,7 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -351,28 +379,25 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="14" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="14" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="14" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="20"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="14" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="14" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="14" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="20" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="21">
     <cellStyle name="Accent" xfId="3" xr:uid="{3987CB3A-2D5B-45A2-9AFD-7DD46AD811F1}"/>
@@ -673,10 +698,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A2:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
@@ -686,33 +711,26 @@
     <col min="6" max="6" width="15.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-    </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="1"/>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
     </row>
     <row r="3" spans="1:5">
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="4" t="s">
@@ -732,211 +750,257 @@
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="9">
         <v>2.88</v>
       </c>
-      <c r="D7" s="13">
+      <c r="D7" s="7">
         <v>1</v>
       </c>
-      <c r="E7" s="3">
-        <f>C7*D7</f>
+      <c r="E7" s="9">
+        <f t="shared" ref="E7:E19" si="0">C7*D7</f>
         <v>2.88</v>
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" t="s">
+      <c r="A8" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C8" s="12">
         <v>1</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="10">
         <v>2</v>
       </c>
-      <c r="E8" s="11">
-        <f>C8*D8</f>
+      <c r="E8" s="12">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" t="s">
+      <c r="A9" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="11">
+      <c r="C9" s="12">
         <v>0.97</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="10">
         <v>4</v>
       </c>
-      <c r="E9" s="11">
-        <f>C9*D9</f>
+      <c r="E9" s="12">
+        <f t="shared" si="0"/>
         <v>3.88</v>
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="15">
+      <c r="C10" s="9">
         <v>2.0099999999999998</v>
       </c>
-      <c r="D10" s="13">
+      <c r="D10" s="7">
         <v>1</v>
       </c>
-      <c r="E10" s="15">
-        <f>C10*D10</f>
+      <c r="E10" s="9">
+        <f t="shared" si="0"/>
         <v>2.0099999999999998</v>
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" t="s">
+      <c r="A11" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="11">
+      <c r="C11" s="12">
         <v>3.73</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="10">
         <v>1</v>
       </c>
-      <c r="E11" s="11">
-        <f>C11*D11</f>
+      <c r="E11" s="12">
+        <f t="shared" si="0"/>
         <v>3.73</v>
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" t="s">
+      <c r="A12" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="11">
+      <c r="C12" s="12">
         <v>0.16</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="10">
         <v>1</v>
       </c>
-      <c r="E12" s="11">
-        <f>C12*D12</f>
+      <c r="E12" s="12">
+        <f t="shared" si="0"/>
         <v>0.16</v>
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" t="s">
+      <c r="A13" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="11">
+      <c r="C13" s="12">
         <v>14.83</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="10">
         <v>1</v>
       </c>
-      <c r="E13" s="11">
-        <f>C13*D13</f>
+      <c r="E13" s="12">
+        <f t="shared" si="0"/>
         <v>14.83</v>
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" t="s">
+      <c r="A14" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="11">
+      <c r="C14" s="12">
         <v>10.99</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="10">
         <v>2</v>
       </c>
-      <c r="E14" s="11">
-        <f>C14*D14</f>
+      <c r="E14" s="12">
+        <f t="shared" si="0"/>
         <v>21.98</v>
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" t="s">
+      <c r="A15" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="11">
+      <c r="C15" s="12">
         <v>8.49</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="10">
         <v>1</v>
       </c>
-      <c r="E15" s="11">
-        <f>C15*D15</f>
+      <c r="E15" s="12">
+        <f t="shared" si="0"/>
         <v>8.49</v>
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" t="s">
+      <c r="A16" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="11">
+      <c r="C16" s="12">
         <v>1.49</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="10">
         <v>4</v>
       </c>
-      <c r="E16" s="11">
-        <f>C16*D16</f>
+      <c r="E16" s="12">
+        <f t="shared" si="0"/>
         <v>5.96</v>
       </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" t="s">
+      <c r="A17" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="11">
+      <c r="C17" s="12">
         <f>3.99</f>
         <v>3.99</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="10">
         <v>1</v>
       </c>
-      <c r="E17" s="11">
-        <f>C17*D17</f>
+      <c r="E17" s="12">
+        <f t="shared" si="0"/>
         <v>3.99</v>
       </c>
       <c r="F17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="10" t="s">
         <v>28</v>
       </c>
+      <c r="B18" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="12">
+        <f>0.99</f>
+        <v>0.99</v>
+      </c>
+      <c r="D18" s="10">
+        <v>1</v>
+      </c>
+      <c r="E18" s="12">
+        <f t="shared" si="0"/>
+        <v>0.99</v>
+      </c>
+      <c r="F18" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="19" spans="1:6">
+      <c r="A19" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" s="12">
+        <v>7.95</v>
+      </c>
+      <c r="D19" s="10">
+        <v>1</v>
+      </c>
       <c r="E19" s="12">
-        <f>SUM(E7:E17)</f>
-        <v>69.91</v>
+        <f t="shared" si="0"/>
+        <v>7.95</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="13">
+        <f>SUM(E7:E19)</f>
+        <v>78.849999999999994</v>
       </c>
     </row>
   </sheetData>
@@ -955,8 +1019,9 @@
     <hyperlink ref="B12" r:id="rId9" xr:uid="{CCD90D96-217D-40EC-986A-8A18DFEE14EE}"/>
     <hyperlink ref="B17" r:id="rId10" xr:uid="{246ABD63-353A-447D-AC6C-93997ED7C2A2}"/>
     <hyperlink ref="B16" r:id="rId11" xr:uid="{05259150-A877-4CD4-9128-8125FC46485E}"/>
+    <hyperlink ref="B19" r:id="rId12" xr:uid="{B82E0D33-94F7-47CB-8665-D00EA228879D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId12"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId13"/>
 </worksheet>
 </file>